--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56611.09587701476</v>
+        <v>11264306.38109998</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56611.09587701476</v>
+        <v>11264306.38109998</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036622680.229234</v>
+        <v>43391898.62776514</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9469.177695749264</v>
+        <v>1077550.834642461</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17488.03553200728</v>
+        <v>1927630.336866962</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25506.44148656014</v>
+        <v>2777709.839091464</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33548.34918051883</v>
+        <v>3627796.753500593</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41590.37640751765</v>
+        <v>4477876.255725095</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49632.12501788385</v>
+        <v>5327955.757949596</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57674.15224488266</v>
+        <v>6178035.260174095</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65715.90085524885</v>
+        <v>7028114.762398592</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73757.92808224766</v>
+        <v>7878194.264623091</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81799.866151924</v>
+        <v>8728273.76684759</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89841.80422160035</v>
+        <v>9578353.269072093</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97883.74229127671</v>
+        <v>10428432.7712966</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105925.6803609532</v>
+        <v>11278512.27352111</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113967.6184306295</v>
+        <v>12128591.77574562</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122009.5565003058</v>
+        <v>12978671.27797012</v>
       </c>
     </row>
   </sheetData>
